--- a/tool/6_res_str/网络参数核对（公式）.xlsx
+++ b/tool/6_res_str/网络参数核对（公式）.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\工具\8  project-中性\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\tool_mini\tool\6_res_str\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19125" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NTAC" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="xml" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$26:$Q$35</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="1349">
   <si>
     <t>Setting Name</t>
   </si>
@@ -3092,6 +3093,993 @@
   </si>
   <si>
     <t>mmsproxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>apn.x2one.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Uiorder</t>
+  </si>
+  <si>
+    <t>MVNO Type</t>
+  </si>
+  <si>
+    <t>MVNO Value</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Roaming</t>
+  </si>
+  <si>
+    <t>roaming_protocol</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>IPV4V6</t>
+  </si>
+  <si>
+    <t>uinternet</t>
+  </si>
+  <si>
+    <t>http://192.168.220.15/servlets/mms</t>
+  </si>
+  <si>
+    <t>default,supl,mms</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>ims</t>
+  </si>
+  <si>
+    <t>CellcomInternet</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Sphone</t>
+  </si>
+  <si>
+    <t>CellcomMMS</t>
+  </si>
+  <si>
+    <t>http://mms.cellcom.co.il</t>
+  </si>
+  <si>
+    <t>172.31.29.38</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>XCAP</t>
+  </si>
+  <si>
+    <t>xcap</t>
+  </si>
+  <si>
+    <t>MultimediaPelephone</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>mms.pelephone.net.il</t>
+  </si>
+  <si>
+    <t>pcl@3g</t>
+  </si>
+  <si>
+    <t>pcl</t>
+  </si>
+  <si>
+    <t>http://mmsu.pelephone.net.il</t>
+  </si>
+  <si>
+    <t>10.170.252.104</t>
+  </si>
+  <si>
+    <t>9093</t>
+  </si>
+  <si>
+    <t>Sphonepelephone</t>
+  </si>
+  <si>
+    <t>sphone.pelephone.net.il</t>
+  </si>
+  <si>
+    <t>IPV6</t>
+  </si>
+  <si>
+    <t>JawwalWAP</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>213.244.118.129</t>
+  </si>
+  <si>
+    <t>JawwalMMS</t>
+  </si>
+  <si>
+    <t>http://mms.jawwal.ps/servlets/mms</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>10.100.129.111</t>
+  </si>
+  <si>
+    <t>Wataniya_mms</t>
+  </si>
+  <si>
+    <t>http://mms.wataniya.ps/servlets/mms</t>
+  </si>
+  <si>
+    <t>InternetHOTmobile</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>net.hotm</t>
+  </si>
+  <si>
+    <t>PCHOTmobile</t>
+  </si>
+  <si>
+    <t>pc.hotm</t>
+  </si>
+  <si>
+    <t>dun</t>
+  </si>
+  <si>
+    <t>MMSHOTmobile</t>
+  </si>
+  <si>
+    <t>mms.hotm</t>
+  </si>
+  <si>
+    <t>http://mms.hotmobile.co.il</t>
+  </si>
+  <si>
+    <t>80.246.131.99</t>
+  </si>
+  <si>
+    <t>GOLAN_DATA</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>internet.golantelecom.net.il</t>
+  </si>
+  <si>
+    <t>GOLAN_MMS</t>
+  </si>
+  <si>
+    <t>mms.golantelecom.net.il</t>
+  </si>
+  <si>
+    <t>http://mmsc.golantelecom.co.il</t>
+  </si>
+  <si>
+    <t>10.224.228.81</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Youphone</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>data.youphone.co.il</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>hcminternet</t>
+  </si>
+  <si>
+    <t>hcmMMS</t>
+  </si>
+  <si>
+    <t>http://82.166.229:9000/mmsc</t>
+  </si>
+  <si>
+    <t>82.166.164.229</t>
+  </si>
+  <si>
+    <t>8898</t>
+  </si>
+  <si>
+    <t>RamiLevi3G</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>internet.rl</t>
+  </si>
+  <si>
+    <t>RamiLeviMultimedia</t>
+  </si>
+  <si>
+    <t>AZI</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>netazi</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>authtype</t>
+  </si>
+  <si>
+    <t>user_visible</t>
+  </si>
+  <si>
+    <t>mmsport</t>
+  </si>
+  <si>
+    <t>mtu</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>roaming_</t>
+  </si>
+  <si>
+    <t>1_carrier</t>
+  </si>
+  <si>
+    <t>1_mcc</t>
+  </si>
+  <si>
+    <t>1_mnc</t>
+  </si>
+  <si>
+    <t>1_protocol</t>
+  </si>
+  <si>
+    <t>1_apn</t>
+  </si>
+  <si>
+    <t>1_mmsc</t>
+  </si>
+  <si>
+    <t>1_type</t>
+  </si>
+  <si>
+    <t>1_</t>
+  </si>
+  <si>
+    <t>2_carrier</t>
+  </si>
+  <si>
+    <t>2_mcc</t>
+  </si>
+  <si>
+    <t>2_mnc</t>
+  </si>
+  <si>
+    <t>2_apn</t>
+  </si>
+  <si>
+    <t>2_type</t>
+  </si>
+  <si>
+    <t>2_protocol</t>
+  </si>
+  <si>
+    <t>2_authtype</t>
+  </si>
+  <si>
+    <t>2_user_visible</t>
+  </si>
+  <si>
+    <t>2_</t>
+  </si>
+  <si>
+    <t>3_carrier</t>
+  </si>
+  <si>
+    <t>3_mcc</t>
+  </si>
+  <si>
+    <t>3_mnc</t>
+  </si>
+  <si>
+    <t>3_protocol</t>
+  </si>
+  <si>
+    <t>3_apn</t>
+  </si>
+  <si>
+    <t>3_type</t>
+  </si>
+  <si>
+    <t>3_</t>
+  </si>
+  <si>
+    <t>4_carrier</t>
+  </si>
+  <si>
+    <t>4_mcc</t>
+  </si>
+  <si>
+    <t>4_mnc</t>
+  </si>
+  <si>
+    <t>4_protocol</t>
+  </si>
+  <si>
+    <t>4_apn</t>
+  </si>
+  <si>
+    <t>4_mmsc</t>
+  </si>
+  <si>
+    <t>4_mmsproxy</t>
+  </si>
+  <si>
+    <t>4_mmsport</t>
+  </si>
+  <si>
+    <t>4_type</t>
+  </si>
+  <si>
+    <t>4_</t>
+  </si>
+  <si>
+    <t>5_carrier</t>
+  </si>
+  <si>
+    <t>5_mcc</t>
+  </si>
+  <si>
+    <t>5_mnc</t>
+  </si>
+  <si>
+    <t>5_apn</t>
+  </si>
+  <si>
+    <t>5_protocol</t>
+  </si>
+  <si>
+    <t>5_roaming_protocol</t>
+  </si>
+  <si>
+    <t>5_mtu</t>
+  </si>
+  <si>
+    <t>5_type</t>
+  </si>
+  <si>
+    <t>5_</t>
+  </si>
+  <si>
+    <t>6_carrier</t>
+  </si>
+  <si>
+    <t>6_mcc</t>
+  </si>
+  <si>
+    <t>6_mnc</t>
+  </si>
+  <si>
+    <t>6_apn</t>
+  </si>
+  <si>
+    <t>6_protocol</t>
+  </si>
+  <si>
+    <t>6_type</t>
+  </si>
+  <si>
+    <t>6_</t>
+  </si>
+  <si>
+    <t>7_carrier</t>
+  </si>
+  <si>
+    <t>7_mcc</t>
+  </si>
+  <si>
+    <t>7_mnc</t>
+  </si>
+  <si>
+    <t>7_apn</t>
+  </si>
+  <si>
+    <t>7_user</t>
+  </si>
+  <si>
+    <t>7_password</t>
+  </si>
+  <si>
+    <t>7_mmsc</t>
+  </si>
+  <si>
+    <t>7_mmsproxy</t>
+  </si>
+  <si>
+    <t>7_mmsport</t>
+  </si>
+  <si>
+    <t>7_type</t>
+  </si>
+  <si>
+    <t>7_</t>
+  </si>
+  <si>
+    <t>8_carrier</t>
+  </si>
+  <si>
+    <t>8_mcc</t>
+  </si>
+  <si>
+    <t>8_mnc</t>
+  </si>
+  <si>
+    <t>8_protocol</t>
+  </si>
+  <si>
+    <t>8_roaming_protocol</t>
+  </si>
+  <si>
+    <t>8_apn</t>
+  </si>
+  <si>
+    <t>8_user</t>
+  </si>
+  <si>
+    <t>8_password</t>
+  </si>
+  <si>
+    <t>8_type</t>
+  </si>
+  <si>
+    <t>8_</t>
+  </si>
+  <si>
+    <t>9_carrier</t>
+  </si>
+  <si>
+    <t>9_mcc</t>
+  </si>
+  <si>
+    <t>9_mnc</t>
+  </si>
+  <si>
+    <t>9_apn</t>
+  </si>
+  <si>
+    <t>9_protocol</t>
+  </si>
+  <si>
+    <t>9_roaming_protocol</t>
+  </si>
+  <si>
+    <t>9_type</t>
+  </si>
+  <si>
+    <t>9_</t>
+  </si>
+  <si>
+    <t>10_carrier</t>
+  </si>
+  <si>
+    <t>10_mcc</t>
+  </si>
+  <si>
+    <t>10_mnc</t>
+  </si>
+  <si>
+    <t>10_apn</t>
+  </si>
+  <si>
+    <t>10_proxy</t>
+  </si>
+  <si>
+    <t>10_port</t>
+  </si>
+  <si>
+    <t>10_type</t>
+  </si>
+  <si>
+    <t>10_</t>
+  </si>
+  <si>
+    <t>11_carrier</t>
+  </si>
+  <si>
+    <t>11_mcc</t>
+  </si>
+  <si>
+    <t>11_mnc</t>
+  </si>
+  <si>
+    <t>11_apn</t>
+  </si>
+  <si>
+    <t>11_mmsc</t>
+  </si>
+  <si>
+    <t>11_mmsproxy</t>
+  </si>
+  <si>
+    <t>11_mmsport</t>
+  </si>
+  <si>
+    <t>11_type</t>
+  </si>
+  <si>
+    <t>11_</t>
+  </si>
+  <si>
+    <t>12_carrier</t>
+  </si>
+  <si>
+    <t>12_mcc</t>
+  </si>
+  <si>
+    <t>12_mnc</t>
+  </si>
+  <si>
+    <t>12_apn</t>
+  </si>
+  <si>
+    <t>12_proxy</t>
+  </si>
+  <si>
+    <t>12_port</t>
+  </si>
+  <si>
+    <t>12_type</t>
+  </si>
+  <si>
+    <t>12_</t>
+  </si>
+  <si>
+    <t>13_carrier</t>
+  </si>
+  <si>
+    <t>13_mcc</t>
+  </si>
+  <si>
+    <t>13_mnc</t>
+  </si>
+  <si>
+    <t>13_apn</t>
+  </si>
+  <si>
+    <t>13_mmsc</t>
+  </si>
+  <si>
+    <t>13_mmsproxy</t>
+  </si>
+  <si>
+    <t>13_mmsport</t>
+  </si>
+  <si>
+    <t>13_type</t>
+  </si>
+  <si>
+    <t>13_</t>
+  </si>
+  <si>
+    <t>14_carrier</t>
+  </si>
+  <si>
+    <t>14_mcc</t>
+  </si>
+  <si>
+    <t>14_mnc</t>
+  </si>
+  <si>
+    <t>14_protocol</t>
+  </si>
+  <si>
+    <t>14_apn</t>
+  </si>
+  <si>
+    <t>14_type</t>
+  </si>
+  <si>
+    <t>14_</t>
+  </si>
+  <si>
+    <t>15_carrier</t>
+  </si>
+  <si>
+    <t>15_mcc</t>
+  </si>
+  <si>
+    <t>15_mnc</t>
+  </si>
+  <si>
+    <t>15_protocol</t>
+  </si>
+  <si>
+    <t>15_roaming_protocol</t>
+  </si>
+  <si>
+    <t>15_apn</t>
+  </si>
+  <si>
+    <t>15_type</t>
+  </si>
+  <si>
+    <t>15_authtype</t>
+  </si>
+  <si>
+    <t>15_</t>
+  </si>
+  <si>
+    <t>16_carrier</t>
+  </si>
+  <si>
+    <t>16_mcc</t>
+  </si>
+  <si>
+    <t>16_mnc</t>
+  </si>
+  <si>
+    <t>16_apn</t>
+  </si>
+  <si>
+    <t>16_protocol</t>
+  </si>
+  <si>
+    <t>16_mmsc</t>
+  </si>
+  <si>
+    <t>16_mmsproxy</t>
+  </si>
+  <si>
+    <t>16_mmsport</t>
+  </si>
+  <si>
+    <t>16_type</t>
+  </si>
+  <si>
+    <t>16_</t>
+  </si>
+  <si>
+    <t>17_carrier</t>
+  </si>
+  <si>
+    <t>17_mcc</t>
+  </si>
+  <si>
+    <t>17_mnc</t>
+  </si>
+  <si>
+    <t>17_apn</t>
+  </si>
+  <si>
+    <t>17_protocol</t>
+  </si>
+  <si>
+    <t>17_roaming_protocol</t>
+  </si>
+  <si>
+    <t>17_mtu</t>
+  </si>
+  <si>
+    <t>17_type</t>
+  </si>
+  <si>
+    <t>17_</t>
+  </si>
+  <si>
+    <t>18_carrier</t>
+  </si>
+  <si>
+    <t>18_mcc</t>
+  </si>
+  <si>
+    <t>18_mnc</t>
+  </si>
+  <si>
+    <t>18_apn</t>
+  </si>
+  <si>
+    <t>18_protocol</t>
+  </si>
+  <si>
+    <t>18_type</t>
+  </si>
+  <si>
+    <t>18_</t>
+  </si>
+  <si>
+    <t>19_carrier</t>
+  </si>
+  <si>
+    <t>19_mcc</t>
+  </si>
+  <si>
+    <t>19_mnc</t>
+  </si>
+  <si>
+    <t>19_apn</t>
+  </si>
+  <si>
+    <t>19_type</t>
+  </si>
+  <si>
+    <t>19_</t>
+  </si>
+  <si>
+    <t>20_carrier</t>
+  </si>
+  <si>
+    <t>20_mcc</t>
+  </si>
+  <si>
+    <t>20_mnc</t>
+  </si>
+  <si>
+    <t>20_apn</t>
+  </si>
+  <si>
+    <t>20_mmsc</t>
+  </si>
+  <si>
+    <t>20_mmsproxy</t>
+  </si>
+  <si>
+    <t>20_mmsport</t>
+  </si>
+  <si>
+    <t>20_type</t>
+  </si>
+  <si>
+    <t>20_</t>
+  </si>
+  <si>
+    <t>21_carrier</t>
+  </si>
+  <si>
+    <t>21_mcc</t>
+  </si>
+  <si>
+    <t>21_mnc</t>
+  </si>
+  <si>
+    <t>21_protocol</t>
+  </si>
+  <si>
+    <t>21_apn</t>
+  </si>
+  <si>
+    <t>21_mmsc</t>
+  </si>
+  <si>
+    <t>21_type</t>
+  </si>
+  <si>
+    <t>21_</t>
+  </si>
+  <si>
+    <t>22_carrier</t>
+  </si>
+  <si>
+    <t>22_mcc</t>
+  </si>
+  <si>
+    <t>22_mnc</t>
+  </si>
+  <si>
+    <t>22_apn</t>
+  </si>
+  <si>
+    <t>22_type</t>
+  </si>
+  <si>
+    <t>22_protocol</t>
+  </si>
+  <si>
+    <t>22_authtype</t>
+  </si>
+  <si>
+    <t>22_user_visible</t>
+  </si>
+  <si>
+    <t>22_</t>
+  </si>
+  <si>
+    <t>23_carrier</t>
+  </si>
+  <si>
+    <t>23_mcc</t>
+  </si>
+  <si>
+    <t>23_mnc</t>
+  </si>
+  <si>
+    <t>23_apn</t>
+  </si>
+  <si>
+    <t>23_mmsc</t>
+  </si>
+  <si>
+    <t>23_mmsport</t>
+  </si>
+  <si>
+    <t>23_type</t>
+  </si>
+  <si>
+    <t>23_</t>
+  </si>
+  <si>
+    <t>24_carrier</t>
+  </si>
+  <si>
+    <t>24_mcc</t>
+  </si>
+  <si>
+    <t>24_mnc</t>
+  </si>
+  <si>
+    <t>24_apn</t>
+  </si>
+  <si>
+    <t>24_type</t>
+  </si>
+  <si>
+    <t>24_</t>
+  </si>
+  <si>
+    <t>25_carrier</t>
+  </si>
+  <si>
+    <t>25_mcc</t>
+  </si>
+  <si>
+    <t>25_mnc</t>
+  </si>
+  <si>
+    <t>25_apn</t>
+  </si>
+  <si>
+    <t>25_mmsc</t>
+  </si>
+  <si>
+    <t>25_mmsproxy</t>
+  </si>
+  <si>
+    <t>25_mmsport</t>
+  </si>
+  <si>
+    <t>25_type</t>
+  </si>
+  <si>
+    <t>25_</t>
+  </si>
+  <si>
+    <t>26_carrier</t>
+  </si>
+  <si>
+    <t>26_mcc</t>
+  </si>
+  <si>
+    <t>26_mnc</t>
+  </si>
+  <si>
+    <t>26_apn</t>
+  </si>
+  <si>
+    <t>26_type</t>
+  </si>
+  <si>
+    <t>26_</t>
+  </si>
+  <si>
+    <t>27_carrier</t>
+  </si>
+  <si>
+    <t>27_mcc</t>
+  </si>
+  <si>
+    <t>27_mnc</t>
+  </si>
+  <si>
+    <t>27_apn</t>
+  </si>
+  <si>
+    <t>27_mmsc</t>
+  </si>
+  <si>
+    <t>27_mmsproxy</t>
+  </si>
+  <si>
+    <t>27_mmsport</t>
+  </si>
+  <si>
+    <t>27_type</t>
+  </si>
+  <si>
+    <t>27_</t>
+  </si>
+  <si>
+    <t>28_carrier</t>
+  </si>
+  <si>
+    <t>28_mcc</t>
+  </si>
+  <si>
+    <t>28_mnc</t>
+  </si>
+  <si>
+    <t>28_apn</t>
+  </si>
+  <si>
+    <t>28_type</t>
+  </si>
+  <si>
+    <t>28_</t>
+  </si>
+  <si>
+    <t>sphone</t>
+  </si>
+  <si>
+    <t>internetg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default,mms</t>
+  </si>
+  <si>
+    <t>mms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3099,7 +4087,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3145,8 +4133,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3165,6 +4169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3180,7 +4190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3212,6 +4222,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20448,7 +21472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -22453,4 +23477,6280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA289"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="16" customWidth="1"/>
+    <col min="9" max="10" width="23.875" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C3">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A3&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A3&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A3&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A3&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A3&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>01</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K3" s="13" t="str">
+        <f>IF(I3=J3,"T","")</f>
+        <v>T</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="U3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C4">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A4&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A4&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A4&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A4&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A4&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>01</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K4" s="13" t="str">
+        <f>IF(I4=J4,"T","")</f>
+        <v>T</v>
+      </c>
+      <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C5">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A5&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A5&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A5&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A5&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A5&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>02</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K5" s="13" t="str">
+        <f>IF(I5=J5,"T","")</f>
+        <v>T</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C6">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A6&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A6&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A6&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A6&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A6&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>02</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="13" t="str">
+        <f>IF(I6=J6,"T","")</f>
+        <v>T</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="U6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C7">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A7&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A7&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A7&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A7&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A7&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>02</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="str">
+        <f t="shared" ref="K7:K31" si="0">IF(I7=J7,"T","")</f>
+        <v/>
+      </c>
+      <c r="L7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C8">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A8&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A8&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A8&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A8&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A8&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>02</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C9">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A9&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A9&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A9&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A9&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A9&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>03</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C10">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A10&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A10&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A10&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A10&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A10&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>03</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C11">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A11&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A11&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A11&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A11&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A11&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>03</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="W11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C12">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A12&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A12&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A12&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A12&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A12&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>05</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C13">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A13&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A13&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A13&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A13&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A13&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>05</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C14">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A14&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A14&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A14&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A14&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A14&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>06</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C15">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A15&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A15&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A15&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A15&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A15&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>06</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C16">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A16&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A16&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A16&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A16&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A16&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>07</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C17">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A17&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A17&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A17&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A17&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A17&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>07</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C18">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A18&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A18&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A18&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A18&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A18&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>07</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="U18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C19">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A19&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A19&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A19&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A19&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A19&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>07</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C20">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A20&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A20&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A20&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A20&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A20&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>07</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C21">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A21&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A21&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A21&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A21&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A21&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>08</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C22">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A22&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A22&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A22&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A22&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A22&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>08</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1085</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1084</v>
+      </c>
+      <c r="U22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C23">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A23&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A23&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A23&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A23&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A23&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="U23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C24">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A24&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A24&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A24&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A24&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A24&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W24" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C25">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A25&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A25&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A25&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A25&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A25&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>14</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="U25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C26">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A26&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A26&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A26&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A26&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A26&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>734</v>
+      </c>
+      <c r="C27">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A27&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A27&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A27&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A27&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A27&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="U27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C28">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A28&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A28&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A28&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A28&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A28&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C29">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A29&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A29&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A29&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A29&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A29&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C30">
+        <f>IF(LEN(C$2)&gt;0,INDEX($B$32:$B$289,MATCH($A30&amp;"_"&amp;C$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>IF(LEN(D$2)&gt;0,INDEX($B$32:$B$289,MATCH($A30&amp;"_"&amp;D$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>IF(LEN(E$2)&gt;0,INDEX($B$32:$B$289,MATCH($A30&amp;"_"&amp;E$2,$D$32:$D$289,)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(LEN(F$2)&gt;0,INDEX($B$32:$B$289,MATCH($A30&amp;"_"&amp;F$2,$D$32:$D$289,)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(LEN(G$2)&gt;0,INDEX($B$32:$B$289,MATCH($A30&amp;"_"&amp;G$2,$D$32:$D$289,)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>107</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C152" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>15</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>15</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>15</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>16</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>16</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>16</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>16</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>16</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C181" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>16</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>16</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>107</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>16</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>17</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>17</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>17</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>17</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>17</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>19</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>19</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>19</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>19</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>19</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>20</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>20</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>20</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>20</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>20</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C216" t="s">
+        <v>65</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>20</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>20</v>
+      </c>
+      <c r="B219" t="s">
+        <v>107</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>20</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>20</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>21</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>21</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>21</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>21</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>21</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C227" t="s">
+        <v>65</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>21</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>21</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>21</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>22</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>22</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>22</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>22</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>22</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>22</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>22</v>
+      </c>
+      <c r="B237" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>22</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>22</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>22</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>23</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>23</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>23</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>23</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>23</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C245" t="s">
+        <v>65</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>23</v>
+      </c>
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>23</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>23</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>23</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <v>24</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <v>24</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <v>24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <v>24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <v>24</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <v>24</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <v>24</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <v>25</v>
+      </c>
+      <c r="B257" t="s">
+        <v>734</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <v>25</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <v>25</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <v>25</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <v>25</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C261" t="s">
+        <v>65</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <v>25</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <v>25</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <v>25</v>
+      </c>
+      <c r="B264" t="s">
+        <v>107</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <v>25</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <v>25</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <v>26</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <v>26</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <v>26</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <v>26</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <v>26</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <v>26</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <v>26</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <v>27</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <v>27</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <v>27</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <v>27</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <v>27</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C278" t="s">
+        <v>65</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <v>27</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <v>27</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <v>27</v>
+      </c>
+      <c r="B281" t="s">
+        <v>107</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <v>27</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <v>27</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <v>28</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <v>28</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <v>28</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <v>28</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <v>28</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" ref="F289" si="1">IF(LEN(C289)&gt;0,MID(C289,SEARCH("""",C289),115),"")</f>
+        <v/>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" ref="G289" si="2">IF(LEN(F289)&gt;0,MID(F289,2,LEN(F289)-2),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>